--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value707.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value707.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.572424915450519</v>
+        <v>1.048086285591125</v>
       </c>
       <c r="B1">
-        <v>2.768304669969273</v>
+        <v>1.73201310634613</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.258077718449965</v>
+        <v>2.696845293045044</v>
       </c>
       <c r="E1">
-        <v>0.7452791730041733</v>
+        <v>1.232964396476746</v>
       </c>
     </row>
   </sheetData>
